--- a/VIS/PaperConsent/nu.xlsx
+++ b/VIS/PaperConsent/nu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doom9\Desktop\Borsa\VIS\PaperConsent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doom9\Desktop\Borsa\VIS\VIS\PaperConsent\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">Foglio1!$E$3:$E$50</definedName>
-    <definedName name="_xlchart.1" hidden="1">Foglio1!$E$3:$E$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="10">
-  <si>
-    <t>Livello di latenza</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="10">
   <si>
     <t>Livello 1</t>
   </si>
@@ -59,12 +55,15 @@
   <si>
     <t>No Latency</t>
   </si>
+  <si>
+    <t>Percepito</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +80,7 @@
     </font>
     <font>
       <sz val="9.6"/>
-      <color rgb="FFCECAC3"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFCECAC3"/>
+      <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -101,12 +94,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF393E40"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,99 +108,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF393E40"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF393E40"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF393E40"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF393E40"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF393E40"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF393E40"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF393E40"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF393E40"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF393E40"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF393E40"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF393E40"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF393E40"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF393E40"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,7 +160,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -791,13 +720,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
@@ -1123,854 +1052,885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="6">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="6">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="6">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="6">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="6">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="5">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
-        <v>2</v>
-      </c>
-      <c r="E45" s="9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="9">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="9">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="B51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="9">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4">
         <v>3857</v>
       </c>
     </row>
